--- a/やることチェックシート.xlsx
+++ b/やることチェックシート.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -18,14 +18,127 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+  <si>
+    <t>ｘ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装者名</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数名</t>
+    <rPh sb="0" eb="3">
+      <t>カンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数1</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数2</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り値</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理内容</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>z=x-y  ※z&lt;0になるときz=0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HEEL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数3</t>
+    <rPh sb="0" eb="2">
+      <t>インスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>z=x+(y*3) ※z&gt;aとなるときz=a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +162,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,12 +447,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="81" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/やることチェックシート.xlsx
+++ b/やることチェックシート.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>ｘ</t>
     <phoneticPr fontId="1"/>
@@ -119,6 +119,37 @@
   </si>
   <si>
     <t>z=x+(y*3) ※z&gt;aとなるときz=a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角で縦x横;30x120でスタート画面を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -447,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -523,6 +554,20 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:8">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/やることチェックシート.xlsx
+++ b/やることチェックシート.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>ｘ</t>
     <phoneticPr fontId="1"/>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>void</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -150,6 +146,47 @@
   </si>
   <si>
     <t>void</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OPNI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VSSE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OPNIと同仕様で1.訓練、2.四天王、3.魔王を選ばせる画面を出す。</t>
+    <rPh sb="5" eb="8">
+      <t>ドウシヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>クンレン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>シテンノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>マオウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ダ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -478,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -556,16 +593,30 @@
     </row>
     <row r="4" spans="1:8">
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
-        <v>19</v>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/やることチェックシート.xlsx
+++ b/やることチェックシート.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>ｘ</t>
     <phoneticPr fontId="1"/>
@@ -186,6 +186,43 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上二つと同仕様で終了画面を表示する。</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -194,7 +231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,20 +552,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" t="s">
         <v>7</v>
       </c>
@@ -571,7 +608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -591,7 +628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>20</v>
       </c>
@@ -605,7 +642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
         <v>21</v>
       </c>
@@ -617,6 +654,20 @@
       </c>
       <c r="G5" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
